--- a/medicine/Psychotrope/Kronenbourg/Kronenbourg.xlsx
+++ b/medicine/Psychotrope/Kronenbourg/Kronenbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kronenbourg est la marque phare des Brasseries Kronenbourg, brasseur alsacien installé à Obernai dans le Bas-Rhin et appartenant aujourd'hui au groupe danois Carlsberg. Elle est la marque de bière la plus consommée en France, une bière sur trois vendue en France étant une Kronenbourg[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kronenbourg est la marque phare des Brasseries Kronenbourg, brasseur alsacien installé à Obernai dans le Bas-Rhin et appartenant aujourd'hui au groupe danois Carlsberg. Elle est la marque de bière la plus consommée en France, une bière sur trois vendue en France étant une Kronenbourg.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1922, la brasserie Hatt rachète le restaurant strasbourgeois du Grand Tigre et nomme sa bière Tigre Bock. Celle-ci est relancée en 1947 sous le nom de Kronenbourg, d'après le quartier de Cronenbourg, à Strasbourg, où s'est installée la brasserie au milieu du XIXe siècle. Cronenbourg étant orthographié « Kronenburg » durant le rattachement de l'Alsace-Lorraine à l'Empire allemand de 1871 à 1919. Cette orthographe germanique peut également faire référence à la qualité allemande de la bière. Vendue dans des bouteilles encapsulées de 33 cℓ - une nouveauté pour l'époque -, elle connait rapidement un grand succès. La bière conditionnée en boîte métallique est développée en 1952. Kronenbourg devient la marque de bière la plus vendue en France.
 Jusqu'en 2000 la Kronenbourg était brassée à la brasserie K1 de Strasbourg-Cronenbourg, la production est désormais issue de la brasserie K2 d'Obernai.
-À partir des années 2000, la marque se diversifie. En 2000 est créée la Kronenbourg Pur Malt, sans alcool, tandis qu'en 2008 est lancée la Kronenbourg 7.2. L'entreprise cherche aussi à redorer le blason de la marque et propose en 2011 la Kronenbourg Fleuron d'Alsace, puis, en 2014, une bière aromatisée baptisée K by Kronenbourg[2].
+À partir des années 2000, la marque se diversifie. En 2000 est créée la Kronenbourg Pur Malt, sans alcool, tandis qu'en 2008 est lancée la Kronenbourg 7.2. L'entreprise cherche aussi à redorer le blason de la marque et propose en 2011 la Kronenbourg Fleuron d'Alsace, puis, en 2014, une bière aromatisée baptisée K by Kronenbourg.
 La marque Kronenbourg Tigre Bock réapparait en 2015.
 Fin 2020, la marque propose un brassin solidaire. Sur chaque bouteille achetée, 50 centimes sont reversés aux cafés et bars alsaciens victimes des confinements de 2020 en France.
 </t>
@@ -548,26 +562,346 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kronenbourg
-L'originale est une bière blonde à 4,2 %. Sa recette est modifiée en 2019 avec l'ajout d'un houblon aromatique et d'une nouvelle levure.
-Kronenbourg 1947
-Bière blonde pils, 5 % lancée en 2019. Son nom fait référence à l'année de naissance de la marque.
-Kronenbourg Alsace
-Bière blonde, 5,3 %. Disponible uniquement en bouteille consignée de 75 cl.
-Kronenbourg Bière de Noël
-Bière de saison, ambrée, 5,5 %.
-Kronenbourg Pur Malt
-Bière blonde sans alcool lancée en 2000.
-Kronenbourg 7.2 Blonde
-Bière blonde, 7,2 %, lancée en 2007.
-Kronenbourg 7.2 Blanche
-Bière blanche, 7,2 %.
-K by Kronenbourg
-Bière blonde, 5 %, aromatisée citron-citron vert, fruits rouges ou mangue et lancée en 2014. N'est plus commercialisée.
-Kronenbourg Tigre Bock
-En 2015, la Kronenbourg Tigre Bock (blonde, 5,5 %) remplace la Kronenbourg Fleuron d'Alsace. Son nom est un hommage à la Tigre Bock lancée en 1922. Brassée avec du malt d'orge et trois houblons différents, elle est d'abord disponible uniquement à la pression dans les cafés, hôtels et restaurants[4]. Elle est également disponible en bouteilles et en canettes dans la grande distribution depuis mars 2016[5]. Une variante brune, à 6,3 %, est lancée la même année. N'est plus commercialisée.
-Kronenbourg au jus d'agrumes
-Bière blonde aromatisée au jus d'agrumes, 2,5 %, lancée en 2015. N'est plus commercialisée
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'originale est une bière blonde à 4,2 %. Sa recette est modifiée en 2019 avec l'ajout d'un houblon aromatique et d'une nouvelle levure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kronenbourg 1947</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blonde pils, 5 % lancée en 2019. Son nom fait référence à l'année de naissance de la marque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kronenbourg Alsace</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blonde, 5,3 %. Disponible uniquement en bouteille consignée de 75 cl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kronenbourg Bière de Noël</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière de saison, ambrée, 5,5 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kronenbourg Pur Malt</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blonde sans alcool lancée en 2000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kronenbourg 7.2 Blonde</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blonde, 7,2 %, lancée en 2007.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kronenbourg 7.2 Blanche</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blanche, 7,2 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>K by Kronenbourg</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blonde, 5 %, aromatisée citron-citron vert, fruits rouges ou mangue et lancée en 2014. N'est plus commercialisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kronenbourg Tigre Bock</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, la Kronenbourg Tigre Bock (blonde, 5,5 %) remplace la Kronenbourg Fleuron d'Alsace. Son nom est un hommage à la Tigre Bock lancée en 1922. Brassée avec du malt d'orge et trois houblons différents, elle est d'abord disponible uniquement à la pression dans les cafés, hôtels et restaurants. Elle est également disponible en bouteilles et en canettes dans la grande distribution depuis mars 2016. Une variante brune, à 6,3 %, est lancée la même année. N'est plus commercialisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kronenbourg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kronenbourg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les bières[3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kronenbourg au jus d'agrumes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blonde aromatisée au jus d'agrumes, 2,5 %, lancée en 2015. N'est plus commercialisée
 </t>
         </is>
       </c>
